--- a/biology/Botanique/Madame_Segond-Weber_(rose)/Madame_Segond-Weber_(rose).xlsx
+++ b/biology/Botanique/Madame_Segond-Weber_(rose)/Madame_Segond-Weber_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Madame Segond-Weber' est un cultivar de rosier hybride de thé obtenu en 1907 par la maison luxembourgeoise Soupert &amp; Notting et mis au commerce en 1908[1]. Il doit son nom à la tragédienne française Madame Segond-Weber (1867-1945). Il faisait partie des grands succès internationaux du début du XXe siècle.
+'Madame Segond-Weber' est un cultivar de rosier hybride de thé obtenu en 1907 par la maison luxembourgeoise Soupert &amp; Notting et mis au commerce en 1908. Il doit son nom à la tragédienne française Madame Segond-Weber (1867-1945). Il faisait partie des grands succès internationaux du début du XXe siècle.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson au feuillage vert foncé de 'Madame Segond-Weber' est érigé et compact et s'élève à 120 cm. Il présente de grandes fleurs rose pâle très parfumées[2], au cœur plus vif. Elles sont très doubles et pleines (26-40 pétales), en forme de coupe ou semi-plates, et portées sur un pédoncule rigide, ce qui est une qualité pour les fleurs à couper. La floraison a lieu tout au long de la saison[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson au feuillage vert foncé de 'Madame Segond-Weber' est érigé et compact et s'élève à 120 cm. Il présente de grandes fleurs rose pâle très parfumées, au cœur plus vif. Elles sont très doubles et pleines (26-40 pétales), en forme de coupe ou semi-plates, et portées sur un pédoncule rigide, ce qui est une qualité pour les fleurs à couper. La floraison a lieu tout au long de la saison.
 Sa zone de rusticité est de 6b à 9b ; il s'agit donc d'un rosier résistant au froid. On peut admirer cette variété à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
-'Madame Segond-Weber' est issu du croisement 'Antoine Rivoire' (Pernet-Ducher 1895) x 'Souvenir de Victor Hugo' (Bonnaire 1884)[3].
+'Madame Segond-Weber' est issu du croisement 'Antoine Rivoire' (Pernet-Ducher 1895) x 'Souvenir de Victor Hugo' (Bonnaire 1884).
 Un sport est découvert en 1929 par Louis Reymond, comme rosier grimpant, il s'agit de 'Madame Segond-Weber Climbing'.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille d'or de Nancy, 1907
 Médaille d'or de Mannheim, 1907
